--- a/Tablolar/Tablo 4.xlsx
+++ b/Tablolar/Tablo 4.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="359">
   <si>
     <t>Ders Çıktı</t>
   </si>
@@ -76,991 +76,1018 @@
     <t>Öğrenciler yazılım geliştirme projeleri ile ilgili riskleri ve risk yönetimi yapabilme yeteneği kazanır</t>
   </si>
   <si>
+    <t>Öğrenciler bir yazılım geliştirme ekibinin üyesi veya yöneticisi olarak görev yapabilir</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>15.79</t>
+  </si>
+  <si>
+    <t>Öğrenciler bir yazılım geliştirme projesi içindeki mesleki ve etik konuları kavrar</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>15.56</t>
+  </si>
+  <si>
+    <t>Öğrenciler bir yazılım geliştirme projesinin teknik belgelendirmesini yapabilme yeteneği kazanır</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2*******4</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>15.95</t>
+  </si>
+  <si>
+    <t>16.79</t>
+  </si>
+  <si>
+    <t>14.90</t>
+  </si>
+  <si>
+    <t>16.56</t>
+  </si>
+  <si>
+    <t>10.80</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2*******6</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>16.90</t>
+  </si>
+  <si>
+    <t>17.79</t>
+  </si>
+  <si>
+    <t>15.80</t>
+  </si>
+  <si>
+    <t>17.56</t>
+  </si>
+  <si>
+    <t>11.60</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2*******7</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>17.85</t>
+  </si>
+  <si>
+    <t>18.79</t>
+  </si>
+  <si>
+    <t>16.70</t>
+  </si>
+  <si>
+    <t>18.56</t>
+  </si>
+  <si>
+    <t>12.40</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2******11</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>20.50</t>
+  </si>
+  <si>
+    <t>18.80</t>
+  </si>
+  <si>
+    <t>19.79</t>
+  </si>
+  <si>
+    <t>17.60</t>
+  </si>
+  <si>
+    <t>19.56</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2*******3</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>19.75</t>
+  </si>
+  <si>
+    <t>20.79</t>
+  </si>
+  <si>
+    <t>20.56</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>20.70</t>
+  </si>
+  <si>
+    <t>21.79</t>
+  </si>
+  <si>
+    <t>19.40</t>
+  </si>
+  <si>
+    <t>21.56</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2*******5</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>21.65</t>
+  </si>
+  <si>
+    <t>22.79</t>
+  </si>
+  <si>
+    <t>20.30</t>
+  </si>
+  <si>
+    <t>22.56</t>
+  </si>
+  <si>
+    <t>15.60</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2******16</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>24.50</t>
+  </si>
+  <si>
+    <t>22.60</t>
+  </si>
+  <si>
+    <t>23.79</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>23.56</t>
+  </si>
+  <si>
+    <t>16.40</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2******17</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>25.50</t>
+  </si>
+  <si>
+    <t>23.55</t>
+  </si>
+  <si>
+    <t>24.79</t>
+  </si>
+  <si>
+    <t>22.10</t>
+  </si>
+  <si>
+    <t>24.56</t>
+  </si>
+  <si>
+    <t>17.20</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2*******9</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>25.79</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>25.56</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2******21</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>27.50</t>
+  </si>
+  <si>
+    <t>25.45</t>
+  </si>
+  <si>
+    <t>26.79</t>
+  </si>
+  <si>
+    <t>23.90</t>
+  </si>
+  <si>
+    <t>26.56</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>26.40</t>
+  </si>
+  <si>
+    <t>27.79</t>
+  </si>
+  <si>
+    <t>24.80</t>
+  </si>
+  <si>
+    <t>27.56</t>
+  </si>
+  <si>
+    <t>19.60</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>27.35</t>
+  </si>
+  <si>
+    <t>28.79</t>
+  </si>
+  <si>
+    <t>25.70</t>
+  </si>
+  <si>
+    <t>28.56</t>
+  </si>
+  <si>
+    <t>20.40</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>28.30</t>
+  </si>
+  <si>
+    <t>29.79</t>
+  </si>
+  <si>
+    <t>26.60</t>
+  </si>
+  <si>
+    <t>29.56</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2******26</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>29.25</t>
+  </si>
+  <si>
+    <t>30.79</t>
+  </si>
+  <si>
+    <t>30.56</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2******27</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>32.50</t>
+  </si>
+  <si>
+    <t>30.20</t>
+  </si>
+  <si>
+    <t>31.79</t>
+  </si>
+  <si>
+    <t>28.40</t>
+  </si>
+  <si>
+    <t>31.56</t>
+  </si>
+  <si>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>Öğrenci NO: 2******19</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>33.50</t>
+  </si>
+  <si>
+    <t>31.15</t>
+  </si>
+  <si>
+    <t>32.79</t>
+  </si>
+  <si>
+    <t>29.30</t>
+  </si>
+  <si>
+    <t>32.56</t>
+  </si>
+  <si>
+    <t>23.60</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>32.10</t>
+  </si>
+  <si>
+    <t>33.79</t>
+  </si>
+  <si>
+    <t>33.56</t>
+  </si>
+  <si>
+    <t>24.40</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>9.60</t>
+  </si>
+  <si>
+    <t>35.50</t>
+  </si>
+  <si>
+    <t>33.05</t>
+  </si>
+  <si>
+    <t>34.79</t>
+  </si>
+  <si>
+    <t>31.10</t>
+  </si>
+  <si>
+    <t>34.56</t>
+  </si>
+  <si>
+    <t>25.20</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
     <t>7.00</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>Öğrenciler bir yazılım geliştirme ekibinin üyesi veya yöneticisi olarak görev yapabilir</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>32.50</t>
-  </si>
-  <si>
-    <t>Öğrenciler bir yazılım geliştirme projesi içindeki mesleki ve etik konuları kavrar</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>Öğrenciler bir yazılım geliştirme projesinin teknik belgelendirmesini yapabilme yeteneği kazanır</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>13.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2*******4</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>5.10</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>6.70</t>
-  </si>
-  <si>
-    <t>33.50</t>
-  </si>
-  <si>
-    <t>10.80</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>13.40</t>
-  </si>
-  <si>
-    <t>14.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2*******6</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>5.20</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>18.50</t>
-  </si>
-  <si>
-    <t>8.00</t>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>35.79</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>35.56</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>10.40</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>34.95</t>
+  </si>
+  <si>
+    <t>36.79</t>
+  </si>
+  <si>
+    <t>32.90</t>
+  </si>
+  <si>
+    <t>36.56</t>
+  </si>
+  <si>
+    <t>26.80</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>38.50</t>
+  </si>
+  <si>
+    <t>35.90</t>
+  </si>
+  <si>
+    <t>37.79</t>
+  </si>
+  <si>
+    <t>33.80</t>
+  </si>
+  <si>
+    <t>37.56</t>
+  </si>
+  <si>
+    <t>27.60</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>9.90</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>39.50</t>
+  </si>
+  <si>
+    <t>36.85</t>
+  </si>
+  <si>
+    <t>38.79</t>
+  </si>
+  <si>
+    <t>34.70</t>
+  </si>
+  <si>
+    <t>38.56</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>10.20</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>37.80</t>
+  </si>
+  <si>
+    <t>39.79</t>
+  </si>
+  <si>
+    <t>35.60</t>
+  </si>
+  <si>
+    <t>39.56</t>
+  </si>
+  <si>
+    <t>29.20</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>41.50</t>
+  </si>
+  <si>
+    <t>38.75</t>
+  </si>
+  <si>
+    <t>40.79</t>
+  </si>
+  <si>
+    <t>40.56</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>39.70</t>
+  </si>
+  <si>
+    <t>41.79</t>
+  </si>
+  <si>
+    <t>37.40</t>
+  </si>
+  <si>
+    <t>41.56</t>
+  </si>
+  <si>
+    <t>30.80</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>7.70</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>43.50</t>
+  </si>
+  <si>
+    <t>40.65</t>
+  </si>
+  <si>
+    <t>42.79</t>
+  </si>
+  <si>
+    <t>38.30</t>
+  </si>
+  <si>
+    <t>42.56</t>
+  </si>
+  <si>
+    <t>31.60</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>44.50</t>
+  </si>
+  <si>
+    <t>41.60</t>
+  </si>
+  <si>
+    <t>43.79</t>
+  </si>
+  <si>
+    <t>39.20</t>
+  </si>
+  <si>
+    <t>43.56</t>
+  </si>
+  <si>
+    <t>32.40</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>11.70</t>
+  </si>
+  <si>
+    <t>13.60</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>42.55</t>
+  </si>
+  <si>
+    <t>44.79</t>
+  </si>
+  <si>
+    <t>40.10</t>
+  </si>
+  <si>
+    <t>44.56</t>
+  </si>
+  <si>
+    <t>33.20</t>
+  </si>
+  <si>
+    <t>46.50</t>
+  </si>
+  <si>
+    <t>45.79</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>45.56</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>14.40</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>44.45</t>
+  </si>
+  <si>
+    <t>46.79</t>
+  </si>
+  <si>
+    <t>41.90</t>
+  </si>
+  <si>
+    <t>46.56</t>
+  </si>
+  <si>
+    <t>34.80</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>12.60</t>
+  </si>
+  <si>
+    <t>48.50</t>
+  </si>
+  <si>
+    <t>45.40</t>
+  </si>
+  <si>
+    <t>47.79</t>
+  </si>
+  <si>
+    <t>42.80</t>
+  </si>
+  <si>
+    <t>47.56</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>8.30</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>46.35</t>
+  </si>
+  <si>
+    <t>48.79</t>
+  </si>
+  <si>
+    <t>43.70</t>
+  </si>
+  <si>
+    <t>48.56</t>
+  </si>
+  <si>
+    <t>36.40</t>
+  </si>
+  <si>
+    <t>50.50</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>49.79</t>
+  </si>
+  <si>
+    <t>44.60</t>
+  </si>
+  <si>
+    <t>49.56</t>
+  </si>
+  <si>
+    <t>37.20</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>8.50</t>
   </si>
   <si>
     <t>16.00</t>
   </si>
   <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>11.60</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
-    <t>14.30</t>
-  </si>
-  <si>
-    <t>15.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2*******7</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>35.50</t>
-  </si>
-  <si>
-    <t>12.40</t>
-  </si>
-  <si>
-    <t>15.50</t>
-  </si>
-  <si>
-    <t>15.20</t>
-  </si>
-  <si>
-    <t>16.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2******11</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>20.50</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>7.30</t>
-  </si>
-  <si>
-    <t>36.50</t>
-  </si>
-  <si>
-    <t>13.20</t>
-  </si>
-  <si>
-    <t>16.10</t>
-  </si>
-  <si>
-    <t>17.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2*******3</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>21.50</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>18.89</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>4.80</t>
-  </si>
-  <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>7.70</t>
-  </si>
-  <si>
-    <t>38.50</t>
-  </si>
-  <si>
-    <t>14.80</t>
-  </si>
-  <si>
-    <t>17.90</t>
-  </si>
-  <si>
-    <t>19.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2*******5</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>5.70</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>39.50</t>
-  </si>
-  <si>
-    <t>15.60</t>
-  </si>
-  <si>
-    <t>18.80</t>
-  </si>
-  <si>
-    <t>20.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2******16</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>24.50</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>8.10</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>16.40</t>
-  </si>
-  <si>
-    <t>19.70</t>
-  </si>
-  <si>
-    <t>21.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2******17</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>25.50</t>
-  </si>
-  <si>
-    <t>11.50</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>8.30</t>
-  </si>
-  <si>
-    <t>41.50</t>
-  </si>
-  <si>
-    <t>17.20</t>
-  </si>
-  <si>
-    <t>20.60</t>
-  </si>
-  <si>
-    <t>22.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2*******9</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>26.50</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>23.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2******21</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>6.40</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>43.50</t>
-  </si>
-  <si>
-    <t>22.40</t>
-  </si>
-  <si>
-    <t>24.89</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>6.20</t>
-  </si>
-  <si>
-    <t>6.60</t>
-  </si>
-  <si>
-    <t>6.80</t>
-  </si>
-  <si>
-    <t>28.50</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>8.90</t>
-  </si>
-  <si>
-    <t>44.50</t>
-  </si>
-  <si>
-    <t>19.60</t>
-  </si>
-  <si>
-    <t>23.30</t>
-  </si>
-  <si>
-    <t>25.89</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>9.10</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>20.40</t>
-  </si>
-  <si>
-    <t>24.20</t>
-  </si>
-  <si>
-    <t>26.89</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>7.60</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>9.30</t>
-  </si>
-  <si>
-    <t>46.50</t>
-  </si>
-  <si>
-    <t>21.20</t>
-  </si>
-  <si>
-    <t>25.10</t>
-  </si>
-  <si>
-    <t>27.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2******26</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>28.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2******27</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>8.40</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>9.70</t>
-  </si>
-  <si>
-    <t>48.50</t>
-  </si>
-  <si>
-    <t>22.80</t>
-  </si>
-  <si>
-    <t>26.90</t>
-  </si>
-  <si>
-    <t>29.89</t>
-  </si>
-  <si>
-    <t>Öğrenci NO: 2******19</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>8.80</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>49.50</t>
-  </si>
-  <si>
-    <t>23.60</t>
-  </si>
-  <si>
-    <t>27.80</t>
-  </si>
-  <si>
-    <t>30.89</t>
-  </si>
-  <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>10.10</t>
-  </si>
-  <si>
-    <t>50.50</t>
-  </si>
-  <si>
-    <t>24.40</t>
-  </si>
-  <si>
-    <t>28.70</t>
-  </si>
-  <si>
-    <t>31.89</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>9.60</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.30</t>
-  </si>
-  <si>
     <t>51.50</t>
   </si>
   <si>
-    <t>25.20</t>
-  </si>
-  <si>
-    <t>29.60</t>
-  </si>
-  <si>
-    <t>32.89</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>33.89</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>10.40</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>10.70</t>
-  </si>
-  <si>
-    <t>53.50</t>
-  </si>
-  <si>
-    <t>26.80</t>
-  </si>
-  <si>
-    <t>31.40</t>
-  </si>
-  <si>
-    <t>34.89</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>10.90</t>
-  </si>
-  <si>
-    <t>54.50</t>
-  </si>
-  <si>
-    <t>27.60</t>
-  </si>
-  <si>
-    <t>32.30</t>
-  </si>
-  <si>
-    <t>35.89</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>11.20</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>11.10</t>
-  </si>
-  <si>
-    <t>55.50</t>
-  </si>
-  <si>
-    <t>28.40</t>
-  </si>
-  <si>
-    <t>33.20</t>
-  </si>
-  <si>
-    <t>36.89</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>7.40</t>
-  </si>
-  <si>
-    <t>10.20</t>
+    <t>48.25</t>
+  </si>
+  <si>
+    <t>50.79</t>
+  </si>
+  <si>
+    <t>50.56</t>
   </si>
   <si>
     <t>38.00</t>
-  </si>
-  <si>
-    <t>11.30</t>
-  </si>
-  <si>
-    <t>56.50</t>
-  </si>
-  <si>
-    <t>29.20</t>
-  </si>
-  <si>
-    <t>34.10</t>
-  </si>
-  <si>
-    <t>37.89</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>57.50</t>
-  </si>
-  <si>
-    <t>38.89</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>11.70</t>
-  </si>
-  <si>
-    <t>58.50</t>
-  </si>
-  <si>
-    <t>30.80</t>
-  </si>
-  <si>
-    <t>35.90</t>
-  </si>
-  <si>
-    <t>39.89</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>12.80</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>11.90</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>31.60</t>
-  </si>
-  <si>
-    <t>36.80</t>
-  </si>
-  <si>
-    <t>40.89</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>11.40</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>12.10</t>
-  </si>
-  <si>
-    <t>60.50</t>
-  </si>
-  <si>
-    <t>32.40</t>
-  </si>
-  <si>
-    <t>37.70</t>
-  </si>
-  <si>
-    <t>41.89</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>13.60</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>12.30</t>
-  </si>
-  <si>
-    <t>61.50</t>
-  </si>
-  <si>
-    <t>38.60</t>
-  </si>
-  <si>
-    <t>42.89</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>62.50</t>
-  </si>
-  <si>
-    <t>43.89</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>14.40</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>12.70</t>
-  </si>
-  <si>
-    <t>63.50</t>
-  </si>
-  <si>
-    <t>34.80</t>
-  </si>
-  <si>
-    <t>40.40</t>
-  </si>
-  <si>
-    <t>44.89</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>8.20</t>
-  </si>
-  <si>
-    <t>12.60</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>12.90</t>
-  </si>
-  <si>
-    <t>64.50</t>
-  </si>
-  <si>
-    <t>35.60</t>
-  </si>
-  <si>
-    <t>41.30</t>
-  </si>
-  <si>
-    <t>45.89</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>13.10</t>
-  </si>
-  <si>
-    <t>65.50</t>
-  </si>
-  <si>
-    <t>36.40</t>
-  </si>
-  <si>
-    <t>42.20</t>
-  </si>
-  <si>
-    <t>46.89</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>13.30</t>
-  </si>
-  <si>
-    <t>66.50</t>
-  </si>
-  <si>
-    <t>37.20</t>
-  </si>
-  <si>
-    <t>43.10</t>
-  </si>
-  <si>
-    <t>47.89</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>67.50</t>
-  </si>
-  <si>
-    <t>48.89</t>
   </si>
 </sst>
 </file>
@@ -1533,79 +1560,79 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -1617,28 +1644,28 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -1650,20 +1677,20 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1681,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -1714,137 +1741,137 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1862,31 +1889,31 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -1895,137 +1922,137 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2043,31 +2070,31 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -2076,137 +2103,137 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2224,31 +2251,31 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K32" s="1"/>
     </row>
@@ -2257,137 +2284,137 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2405,31 +2432,31 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K39" s="1"/>
     </row>
@@ -2438,137 +2465,137 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2586,31 +2613,31 @@
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K46" s="1"/>
     </row>
@@ -2619,137 +2646,137 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2767,31 +2794,31 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -2800,137 +2827,137 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2948,31 +2975,31 @@
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K60" s="1"/>
     </row>
@@ -2981,137 +3008,137 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3129,31 +3156,31 @@
         <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K67" s="1"/>
     </row>
@@ -3162,137 +3189,137 @@
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3319,22 +3346,22 @@
         <v>15</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K74" s="1"/>
     </row>
@@ -3343,137 +3370,137 @@
         <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3491,31 +3518,31 @@
         <v>11</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K81" s="1"/>
     </row>
@@ -3524,137 +3551,137 @@
         <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3672,31 +3699,31 @@
         <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K88" s="1"/>
     </row>
@@ -3705,137 +3732,137 @@
         <v>20</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3853,31 +3880,31 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K95" s="1"/>
     </row>
@@ -3886,137 +3913,137 @@
         <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4034,31 +4061,31 @@
         <v>11</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="K102" s="1"/>
     </row>
@@ -4067,137 +4094,137 @@
         <v>20</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4215,31 +4242,31 @@
         <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K109" s="1"/>
     </row>
@@ -4248,137 +4275,137 @@
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K112" s="1"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="K113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4396,31 +4423,31 @@
         <v>11</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="K116" s="1"/>
     </row>
@@ -4429,137 +4456,137 @@
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4577,31 +4604,31 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="K123" s="1"/>
     </row>
@@ -4610,137 +4637,137 @@
         <v>20</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4758,31 +4785,31 @@
         <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="H130" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="K130" s="1"/>
     </row>
@@ -4791,137 +4818,137 @@
         <v>20</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="H133" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K133" s="1"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4939,31 +4966,31 @@
         <v>11</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="K137" s="1"/>
     </row>
@@ -4972,137 +4999,137 @@
         <v>20</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5123,28 +5150,28 @@
         <v>17</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="K144" s="1"/>
     </row>
@@ -5153,137 +5180,137 @@
         <v>20</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="K145" s="1"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K146" s="1"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="K147" s="1"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="K148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5301,31 +5328,31 @@
         <v>11</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="K151" s="1"/>
     </row>
@@ -5334,137 +5361,137 @@
         <v>20</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K152" s="1"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="K154" s="1"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="K155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5482,31 +5509,31 @@
         <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="K158" s="1"/>
     </row>
@@ -5515,137 +5542,137 @@
         <v>20</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K159" s="1"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="K160" s="1"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="K161" s="1"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="K162" s="1"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5663,31 +5690,31 @@
         <v>11</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="K165" s="1"/>
     </row>
@@ -5696,137 +5723,137 @@
         <v>20</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K167" s="1"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="K168" s="1"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="K169" s="1"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5844,31 +5871,31 @@
         <v>11</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="K172" s="1"/>
     </row>
@@ -5877,137 +5904,137 @@
         <v>20</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K173" s="1"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K174" s="1"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="K175" s="1"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="I176" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="K176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6025,31 +6052,31 @@
         <v>11</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="K179" s="1"/>
     </row>
@@ -6058,137 +6085,137 @@
         <v>20</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K180" s="1"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K181" s="1"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="K183" s="1"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6206,31 +6233,31 @@
         <v>11</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="F186" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="K186" s="1"/>
     </row>
@@ -6239,137 +6266,137 @@
         <v>20</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K187" s="1"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F188" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K188" s="1"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="K189" s="1"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="K190" s="1"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6387,31 +6414,31 @@
         <v>11</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="K193" s="1"/>
     </row>
@@ -6420,137 +6447,137 @@
         <v>20</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K194" s="1"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K195" s="1"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="K196" s="1"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="K197" s="1"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6568,31 +6595,31 @@
         <v>11</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="K200" s="1"/>
     </row>
@@ -6601,137 +6628,137 @@
         <v>20</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K201" s="1"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K202" s="1"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="K203" s="1"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="K204" s="1"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6749,31 +6776,31 @@
         <v>11</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>307</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="K207" s="1"/>
     </row>
@@ -6782,28 +6809,28 @@
         <v>20</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>307</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>308</v>
@@ -6812,31 +6839,31 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G209" s="1" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>310</v>
@@ -6845,74 +6872,74 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>307</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="K210" s="1"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>307</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="K211" s="1"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6930,31 +6957,31 @@
         <v>11</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="K214" s="1"/>
     </row>
@@ -6963,137 +6990,137 @@
         <v>20</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K215" s="1"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K216" s="1"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="K217" s="1"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="K218" s="1"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7111,31 +7138,31 @@
         <v>11</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="K221" s="1"/>
     </row>
@@ -7144,137 +7171,137 @@
         <v>20</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K222" s="1"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K223" s="1"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
       <c r="K224" s="1"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="K225" s="1"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7292,31 +7319,31 @@
         <v>11</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="K228" s="1"/>
     </row>
@@ -7325,137 +7352,137 @@
         <v>20</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>21</v>
+        <v>327</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K229" s="1"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K230" s="1"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>182</v>
+        <v>334</v>
       </c>
       <c r="K231" s="1"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="K232" s="1"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7473,31 +7500,31 @@
         <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="K235" s="1"/>
     </row>
@@ -7506,137 +7533,137 @@
         <v>20</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>21</v>
+        <v>337</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K236" s="1"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>21</v>
+        <v>337</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K237" s="1"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="K238" s="1"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="K239" s="1"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7654,31 +7681,31 @@
         <v>11</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="K242" s="1"/>
     </row>
@@ -7687,137 +7714,137 @@
         <v>20</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>160</v>
+        <v>345</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K243" s="1"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K244" s="1"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="K245" s="1"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="K246" s="1"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7835,31 +7862,31 @@
         <v>11</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="K249" s="1"/>
     </row>
@@ -7868,130 +7895,130 @@
         <v>20</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K250" s="1"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>21</v>
+        <v>353</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>49</v>
+        <v>355</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K251" s="1"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="K252" s="1"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="K253" s="1"/>
     </row>
